--- a/Analysis/Method2/method2.xlsx
+++ b/Analysis/Method2/method2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COP290 Design Practices\cop290_asgn1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COP290 Design Practices\cop290_asgn1\Analysis\Method2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2576FE84-F13E-494D-B12D-B11B567081BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C354E42-E1F3-4450-8E20-862DC9D2ED37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3EA06125-C7B4-4FBF-944D-0D24DDE0B434}"/>
   </bookViews>
@@ -243,31 +243,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3421000000000001E-2</c:v>
+                  <c:v>7.2940000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1634E-2</c:v>
+                  <c:v>1.7600000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0264000000000001E-2</c:v>
+                  <c:v>7.3769999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8043E-2</c:v>
+                  <c:v>2.1069999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6373000000000001E-2</c:v>
+                  <c:v>1.0009000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4990999999999999E-2</c:v>
+                  <c:v>3.0079999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9139999999999999E-2</c:v>
+                  <c:v>9.1109999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5992000000000001E-2</c:v>
+                  <c:v>5.4079999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5409999999999997E-2</c:v>
+                  <c:v>9.9600000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,31 +577,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3421000000000001E-2</c:v>
+                  <c:v>7.2940000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1634E-2</c:v>
+                  <c:v>1.7600000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0264000000000001E-2</c:v>
+                  <c:v>7.3769999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8043E-2</c:v>
+                  <c:v>2.1069999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6373000000000001E-2</c:v>
+                  <c:v>1.0009000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4990999999999999E-2</c:v>
+                  <c:v>3.0079999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9139999999999999E-2</c:v>
+                  <c:v>9.1109999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5992000000000001E-2</c:v>
+                  <c:v>5.4079999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5409999999999997E-2</c:v>
+                  <c:v>9.9600000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,34 +613,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>272</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>278</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>275</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>272</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>271</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>278</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>288</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>285</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>286</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>304</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,34 +986,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>272</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>278</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>275</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>272</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>271</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>278</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>288</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>285</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>286</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>304</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,13 +2884,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -2926,7 +2926,7 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -2956,13 +2956,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
@@ -3293,7 +3293,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>272</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3325,10 +3325,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.3421000000000001E-2</v>
+        <v>7.2940000000000001E-3</v>
       </c>
       <c r="C3">
-        <v>278</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3336,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.1634E-2</v>
+        <v>1.7600000000000001E-3</v>
       </c>
       <c r="C4">
-        <v>275</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3347,10 +3347,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.0264000000000001E-2</v>
+        <v>7.3769999999999999E-3</v>
       </c>
       <c r="C5">
-        <v>272</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3358,10 +3358,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.8043E-2</v>
+        <v>2.1069999999999999E-3</v>
       </c>
       <c r="C6">
-        <v>271</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3369,10 +3369,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.6373000000000001E-2</v>
+        <v>1.0009000000000001E-2</v>
       </c>
       <c r="C7">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3380,10 +3380,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.4990999999999999E-2</v>
+        <v>3.0079999999999998E-3</v>
       </c>
       <c r="C8">
-        <v>288</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3391,10 +3391,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.9139999999999999E-2</v>
+        <v>9.1109999999999993E-3</v>
       </c>
       <c r="C9">
-        <v>285</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3402,10 +3402,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.5992000000000001E-2</v>
+        <v>5.4079999999999996E-3</v>
       </c>
       <c r="C10">
-        <v>286</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3413,10 +3413,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.5409999999999997E-2</v>
+        <v>9.9600000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>304</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
